--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>唯一订单编号（日期时间戳+5位随机数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>orderCreateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,14 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>openidMd5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品购买的数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,10 +431,6 @@
   </si>
   <si>
     <t>添加地址时间</t>
-  </si>
-  <si>
-    <t>addressId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收货地址表id</t>
@@ -755,6 +738,34 @@
   </si>
   <si>
     <t>订单状态：1：待付款 2：已付款 3：已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一订单编号（日期时间戳+5位随机数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表md5加密的openid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productClassId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,14 +868,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,7 +1169,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1169,7 +1180,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1598,10 +1609,10 @@
     </row>
     <row r="69" spans="1:2" ht="24.95" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1614,97 +1625,97 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="84.75" customHeight="1">
+      <c r="A84" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="84.75" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B84" s="6"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="87" spans="1:2" ht="24.95" customHeight="1">
       <c r="A87" s="3" t="s">
@@ -1727,47 +1738,47 @@
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1779,19 +1790,19 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>117</v>
+      <c r="A96" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,10 +337,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -757,15 +753,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>addressId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_product_orderInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>订单总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describes</t>
+  </si>
+  <si>
+    <t>买家留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品展示价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品订单明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productShowPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>productClassId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品分类表id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressId</t>
+    <t>productClassName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1177,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1609,10 +1675,10 @@
     </row>
     <row r="69" spans="1:2" ht="24.95" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1625,95 +1691,95 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="84.75" customHeight="1">
       <c r="A84" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="7"/>
     </row>
@@ -1735,18 +1801,18 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1754,55 +1820,135 @@
         <v>74</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>122</v>
+      <c r="B94" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>18</v>
+        <v>114</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="5" t="s">
-        <v>123</v>
+      <c r="A96" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\WX_Project\WeChatShop_Java\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="144">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -832,14 +837,26 @@
   </si>
   <si>
     <t>productClassName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,6 +994,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1235,27 +1260,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="144.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.95" customHeight="1">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1289,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1272,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1288,7 +1313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1322,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1305,7 +1330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1321,7 +1346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1329,7 +1354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1337,7 +1362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1345,7 +1370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +1378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -1361,7 +1386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -1369,7 +1394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -1377,7 +1402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1385,7 +1410,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="24.95" customHeight="1">
+    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1393,7 +1418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1401,7 +1426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1409,7 +1434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1417,7 +1442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +1450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24.95" customHeight="1">
+    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1433,7 +1458,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -1441,7 +1466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -1449,7 +1474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1457,7 +1482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1465,7 +1490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
@@ -1473,7 +1498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
@@ -1481,7 +1506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1489,7 +1514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="24.95" customHeight="1">
+    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
@@ -1497,7 +1522,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -1505,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>63</v>
       </c>
@@ -1521,7 +1546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
@@ -1529,7 +1554,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
@@ -1537,7 +1562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="24.95" customHeight="1">
+    <row r="46" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -1545,7 +1570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>35</v>
       </c>
@@ -1569,7 +1594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
@@ -1577,7 +1602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="24.95" customHeight="1">
+    <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
@@ -1585,7 +1610,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>67</v>
       </c>
@@ -1593,7 +1618,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>69</v>
       </c>
@@ -1601,7 +1626,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>74</v>
       </c>
@@ -1609,7 +1634,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>75</v>
       </c>
@@ -1617,7 +1642,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="24.95" customHeight="1">
+    <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>76</v>
       </c>
@@ -1625,7 +1650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
@@ -1633,7 +1658,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>69</v>
       </c>
@@ -1641,7 +1666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>78</v>
       </c>
@@ -1649,7 +1674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>80</v>
       </c>
@@ -1657,7 +1682,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
@@ -1665,7 +1690,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
@@ -1673,7 +1698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="24.95" customHeight="1">
+    <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>89</v>
       </c>
@@ -1681,7 +1706,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>67</v>
       </c>
@@ -1689,7 +1714,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>90</v>
       </c>
@@ -1697,7 +1722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>92</v>
       </c>
@@ -1705,7 +1730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>94</v>
       </c>
@@ -1713,7 +1738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>97</v>
       </c>
@@ -1721,7 +1746,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
@@ -1729,7 +1754,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>100</v>
       </c>
@@ -1737,7 +1762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>102</v>
       </c>
@@ -1745,7 +1770,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>104</v>
       </c>
@@ -1753,7 +1778,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>106</v>
       </c>
@@ -1761,7 +1786,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>109</v>
       </c>
@@ -1769,7 +1794,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>110</v>
       </c>
@@ -1777,13 +1802,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="84.75" customHeight="1">
+    <row r="84" spans="1:2" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B84" s="7"/>
     </row>
-    <row r="87" spans="1:2" ht="24.95" customHeight="1">
+    <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>82</v>
       </c>
@@ -1791,7 +1816,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>84</v>
       </c>
@@ -1799,7 +1824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>122</v>
       </c>
@@ -1807,7 +1832,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>85</v>
       </c>
@@ -1815,7 +1840,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>74</v>
       </c>
@@ -1823,7 +1848,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>123</v>
       </c>
@@ -1831,7 +1856,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>17</v>
       </c>
@@ -1839,7 +1864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
         <v>120</v>
       </c>
@@ -1847,7 +1872,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>114</v>
       </c>
@@ -1855,7 +1880,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>125</v>
       </c>
@@ -1863,7 +1888,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="24.95" customHeight="1">
+    <row r="99" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>133</v>
       </c>
@@ -1871,7 +1896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <v>84</v>
       </c>
@@ -1879,7 +1904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>122</v>
       </c>
@@ -1887,7 +1912,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>136</v>
       </c>
@@ -1895,7 +1920,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>137</v>
       </c>
@@ -1903,7 +1928,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>138</v>
       </c>
@@ -1911,7 +1936,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <v>119</v>
       </c>
@@ -1919,7 +1944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>139</v>
       </c>
@@ -1927,7 +1952,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>140</v>
       </c>
@@ -1935,7 +1960,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>131</v>
       </c>
@@ -1943,12 +1968,36 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\WX_Project\WeChatShop_Java\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="146">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,13 +845,19 @@
   <si>
     <t>收货人地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyCount</t>
+  </si>
+  <si>
+    <t>此商品每个用户限购数量 -1：不限制</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,27 +1261,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="144.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1322,7 +1323,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1378,631 +1379,639 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="6" t="s">
+    <row r="85" spans="1:2" ht="84.75" customHeight="1">
+      <c r="A85" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="7"/>
-    </row>
-    <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="3" t="s">
+      <c r="B85" s="7"/>
+    </row>
+    <row r="88" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="3" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="5" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A100" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="3" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="5" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B108" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="5" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="5" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B110" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="3" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="148">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此分类商品库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>addClassTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,10 +341,6 @@
   </si>
   <si>
     <t>订单创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品购买的数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -851,6 +843,20 @@
   </si>
   <si>
     <t>此商品每个用户限购数量 -1：不限制</t>
+  </si>
+  <si>
+    <t>商品购买的数量（也是需要冻结的商品数量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freezeCount</t>
+  </si>
+  <si>
+    <t>冻结的商品数量：当用户下单后将订单中的数量冻结，剩余库存=库存-冻结数量。待用户付款成功后或订单过期后解冻。</t>
+  </si>
+  <si>
+    <t>此分类商品库存：只有当卖家在后台管理系统中点击‘确认发货’后才能减少库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1269,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1286,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1319,7 +1325,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1341,10 +1347,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1381,15 +1387,15 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -1397,26 +1403,26 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="24.95" customHeight="1">
@@ -1424,7 +1430,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1464,7 +1470,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1488,7 +1494,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1496,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1504,60 +1510,60 @@
         <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>64</v>
@@ -1565,453 +1571,461 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+    </row>
+    <row r="48" spans="1:2" ht="24.95" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+    </row>
+    <row r="55" spans="1:2" ht="24.95" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="24.95" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="84.75" customHeight="1">
+      <c r="A86" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="84.75" customHeight="1">
-      <c r="A85" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="7"/>
-    </row>
-    <row r="88" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="B86" s="7"/>
+    </row>
+    <row r="89" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>124</v>
+        <v>73</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="3" t="s">
-        <v>114</v>
+      <c r="A96" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="24.95" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>130</v>
+      <c r="A108" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>93</v>
+      <c r="A111" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\WX_Project\WeChatShop_Java\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="160">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -856,14 +861,62 @@
   </si>
   <si>
     <t>此分类商品库存：只有当卖家在后台管理系统中点击‘确认发货’后才能减少库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5加密过后的管理员密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastLoginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后登录时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1267,27 +1320,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="144.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.95" customHeight="1">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1349,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1382,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1337,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1345,7 +1398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -1353,7 +1406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1369,7 +1422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1385,7 +1438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>142</v>
       </c>
@@ -1393,7 +1446,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
@@ -1401,7 +1454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -1409,7 +1462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -1417,7 +1470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1425,7 +1478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="24.95" customHeight="1">
+    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1433,7 +1486,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1449,7 +1502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1465,7 +1518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="24.95" customHeight="1">
+    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1473,7 +1526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -1481,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1489,7 +1542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1497,7 +1550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1505,7 +1558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -1513,7 +1566,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>145</v>
       </c>
@@ -1521,7 +1574,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
@@ -1529,7 +1582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1">
+    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1545,7 +1598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1553,7 +1606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
@@ -1569,7 +1622,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
@@ -1577,7 +1630,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -1585,7 +1638,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="24.95" customHeight="1">
+    <row r="48" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
@@ -1593,7 +1646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
@@ -1601,7 +1654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
@@ -1609,7 +1662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>35</v>
       </c>
@@ -1617,7 +1670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
@@ -1625,7 +1678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="24.95" customHeight="1">
+    <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>72</v>
       </c>
@@ -1633,7 +1686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
@@ -1641,7 +1694,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>68</v>
       </c>
@@ -1649,7 +1702,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>73</v>
       </c>
@@ -1657,7 +1710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>74</v>
       </c>
@@ -1665,7 +1718,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="24.95" customHeight="1">
+    <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>75</v>
       </c>
@@ -1673,7 +1726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
@@ -1681,7 +1734,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
@@ -1689,7 +1742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>77</v>
       </c>
@@ -1697,7 +1750,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>79</v>
       </c>
@@ -1705,7 +1758,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
@@ -1713,7 +1766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>74</v>
       </c>
@@ -1721,7 +1774,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="24.95" customHeight="1">
+    <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>87</v>
       </c>
@@ -1729,7 +1782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -1737,7 +1790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>88</v>
       </c>
@@ -1745,7 +1798,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>90</v>
       </c>
@@ -1753,7 +1806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>92</v>
       </c>
@@ -1761,7 +1814,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>95</v>
       </c>
@@ -1769,7 +1822,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>94</v>
       </c>
@@ -1777,7 +1830,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>98</v>
       </c>
@@ -1785,7 +1838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>100</v>
       </c>
@@ -1793,7 +1846,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>102</v>
       </c>
@@ -1801,7 +1854,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>104</v>
       </c>
@@ -1809,7 +1862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -1817,7 +1870,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
@@ -1825,13 +1878,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="84.75" customHeight="1">
+    <row r="86" spans="1:2" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B86" s="7"/>
     </row>
-    <row r="89" spans="1:2" ht="24.95" customHeight="1">
+    <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>81</v>
       </c>
@@ -1839,7 +1892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>83</v>
       </c>
@@ -1847,7 +1900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>120</v>
       </c>
@@ -1855,7 +1908,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>84</v>
       </c>
@@ -1863,7 +1916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>73</v>
       </c>
@@ -1871,7 +1924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>121</v>
       </c>
@@ -1879,7 +1932,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>17</v>
       </c>
@@ -1887,7 +1940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
         <v>118</v>
       </c>
@@ -1895,7 +1948,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
         <v>112</v>
       </c>
@@ -1903,7 +1956,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>123</v>
       </c>
@@ -1911,7 +1964,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="24.95" customHeight="1">
+    <row r="101" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>131</v>
       </c>
@@ -1919,7 +1972,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>83</v>
       </c>
@@ -1927,7 +1980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>120</v>
       </c>
@@ -1935,7 +1988,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>134</v>
       </c>
@@ -1943,7 +1996,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <v>135</v>
       </c>
@@ -1951,7 +2004,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>136</v>
       </c>
@@ -1959,7 +2012,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>117</v>
       </c>
@@ -1967,7 +2020,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
         <v>137</v>
       </c>
@@ -1975,7 +2028,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
         <v>138</v>
       </c>
@@ -1983,7 +2036,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
         <v>129</v>
       </c>
@@ -1991,7 +2044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
         <v>132</v>
       </c>
@@ -1999,7 +2052,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
         <v>90</v>
       </c>
@@ -2007,7 +2060,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>92</v>
       </c>
@@ -2015,13 +2068,73 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>141</v>
       </c>
+    </row>
+    <row r="117" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\WX_Project\WeChatShop_Java\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="176">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -910,13 +905,76 @@
   <si>
     <t>最后登录时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品id，点击图片链接到的商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：1.显示，2.隐藏，3.删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastUpdateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_home_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型： 1.banner 2.推荐 3.活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片：如果类型是banner就是banner图片，如果是活动就是活动的图片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,27 +1378,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="144.125" customWidth="1"/>
+    <col min="2" max="2" width="140.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="24.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1407,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="24.95" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1440,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -1406,7 +1464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1414,7 +1472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1430,7 +1488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>142</v>
       </c>
@@ -1446,7 +1504,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
@@ -1454,7 +1512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -1462,7 +1520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -1470,7 +1528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1478,7 +1536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="24.95" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1486,7 +1544,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1502,7 +1560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1510,7 +1568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1518,7 +1576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="24.95" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1584,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -1534,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1542,7 +1600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1550,7 +1608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1624,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>145</v>
       </c>
@@ -1574,7 +1632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
@@ -1582,7 +1640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1590,7 +1648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="24.95" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -1598,7 +1656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
@@ -1614,7 +1672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
@@ -1622,7 +1680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
@@ -1630,7 +1688,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
@@ -1638,7 +1696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" ht="24.95" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
@@ -1646,7 +1704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
@@ -1654,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
         <v>35</v>
       </c>
@@ -1670,7 +1728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
@@ -1678,7 +1736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="24.95" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>72</v>
       </c>
@@ -1686,7 +1744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
@@ -1694,7 +1752,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
         <v>68</v>
       </c>
@@ -1702,7 +1760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
         <v>73</v>
       </c>
@@ -1710,7 +1768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
         <v>74</v>
       </c>
@@ -1718,7 +1776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="24.95" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>75</v>
       </c>
@@ -1726,7 +1784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
@@ -1734,7 +1792,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
@@ -1742,7 +1800,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
         <v>77</v>
       </c>
@@ -1750,7 +1808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>79</v>
       </c>
@@ -1758,7 +1816,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
@@ -1766,7 +1824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
         <v>74</v>
       </c>
@@ -1774,7 +1832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="24.95" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>87</v>
       </c>
@@ -1782,7 +1840,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
@@ -1790,7 +1848,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
         <v>88</v>
       </c>
@@ -1798,7 +1856,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
         <v>90</v>
       </c>
@@ -1806,7 +1864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
         <v>92</v>
       </c>
@@ -1814,7 +1872,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
         <v>95</v>
       </c>
@@ -1822,7 +1880,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
         <v>94</v>
       </c>
@@ -1830,7 +1888,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>98</v>
       </c>
@@ -1838,7 +1896,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
         <v>100</v>
       </c>
@@ -1846,7 +1904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
         <v>102</v>
       </c>
@@ -1854,7 +1912,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
         <v>104</v>
       </c>
@@ -1862,7 +1920,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -1870,7 +1928,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
@@ -1878,13 +1936,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" ht="84.75" customHeight="1">
       <c r="A86" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B86" s="7"/>
     </row>
-    <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" ht="24.95" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>81</v>
       </c>
@@ -1892,7 +1950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
         <v>83</v>
       </c>
@@ -1900,7 +1958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
         <v>120</v>
       </c>
@@ -1908,7 +1966,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
         <v>84</v>
       </c>
@@ -1916,7 +1974,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
         <v>73</v>
       </c>
@@ -1924,7 +1982,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
         <v>121</v>
       </c>
@@ -1932,7 +1990,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
         <v>17</v>
       </c>
@@ -1940,7 +1998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
         <v>118</v>
       </c>
@@ -1948,7 +2006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
         <v>112</v>
       </c>
@@ -1956,7 +2014,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
         <v>123</v>
       </c>
@@ -1964,7 +2022,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" ht="24.95" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>131</v>
       </c>
@@ -1972,7 +2030,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
         <v>83</v>
       </c>
@@ -1980,7 +2038,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
         <v>120</v>
       </c>
@@ -1988,7 +2046,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
         <v>134</v>
       </c>
@@ -1996,7 +2054,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
         <v>135</v>
       </c>
@@ -2004,7 +2062,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
         <v>136</v>
       </c>
@@ -2012,7 +2070,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
         <v>117</v>
       </c>
@@ -2020,7 +2078,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108" s="3" t="s">
         <v>137</v>
       </c>
@@ -2028,7 +2086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
         <v>138</v>
       </c>
@@ -2036,7 +2094,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
         <v>129</v>
       </c>
@@ -2044,7 +2102,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
         <v>132</v>
       </c>
@@ -2052,7 +2110,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112" s="3" t="s">
         <v>90</v>
       </c>
@@ -2060,7 +2118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
         <v>92</v>
       </c>
@@ -2068,7 +2126,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
         <v>139</v>
       </c>
@@ -2076,7 +2134,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" ht="24.95" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>148</v>
       </c>
@@ -2084,7 +2142,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118" s="3" t="s">
         <v>83</v>
       </c>
@@ -2092,7 +2150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2">
       <c r="A119" s="5" t="s">
         <v>150</v>
       </c>
@@ -2100,7 +2158,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120" s="5" t="s">
         <v>153</v>
       </c>
@@ -2108,7 +2166,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121" s="5" t="s">
         <v>155</v>
       </c>
@@ -2116,7 +2174,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122" s="5" t="s">
         <v>157</v>
       </c>
@@ -2124,7 +2182,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123" s="5" t="s">
         <v>158</v>
       </c>
@@ -2132,9 +2190,77 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+    <row r="126" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A126" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="178">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -968,6 +968,12 @@
   </si>
   <si>
     <t>图片：如果类型是banner就是banner图片，如果是活动就是活动的图片</t>
+  </si>
+  <si>
+    <t>downShelves</t>
+  </si>
+  <si>
+    <t>是否下架 0：否 1：是</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1386,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1505,766 +1511,774 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>51</v>
+      <c r="A16" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A72" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="84.75" customHeight="1">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:2" ht="84.75" customHeight="1">
+      <c r="A87" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="7"/>
-    </row>
-    <row r="89" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A89" s="3" t="s">
+      <c r="B87" s="7"/>
+    </row>
+    <row r="90" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A90" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>122</v>
+        <v>73</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="5" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A102" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B112" s="5" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A117" s="3" t="s">
+    <row r="118" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A118" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="3" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B124" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A126" s="3" t="s">
+    <row r="127" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A127" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B135" s="5" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="177">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -955,25 +955,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_home_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型： 1.banner 2.推荐 3.活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片：如果类型是banner就是banner图片，如果是活动就是活动的图片</t>
-  </si>
-  <si>
     <t>downShelves</t>
   </si>
   <si>
     <t>是否下架 0：否 1：是</t>
+  </si>
+  <si>
+    <t>t_home_banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_home_recommended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1059,7 +1056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,6 +1080,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,14 +1124,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1384,7 +1382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1392,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1512,10 +1510,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2209,7 +2207,7 @@
         <v>160</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2268,12 +2266,60 @@
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>174</v>
+    <row r="137" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A137" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" s="8" customFormat="1">
+      <c r="A142" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" s="8" customFormat="1">
+      <c r="A143" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="182">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -971,6 +971,22 @@
   <si>
     <t>t_home_recommended</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastUpdateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态： 1：展示 2：隐藏 3：删除</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,12 +1091,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,6 +1098,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,7 +1401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1390,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1435,896 +1454,932 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="5" spans="1:3" s="6" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1">
+      <c r="A7" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1">
+      <c r="A8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="24.95" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A23" s="3" t="s">
+    <row r="28" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="24.95" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="24.95" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A56" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A63" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="24.95" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="24.95" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="24.95" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="84.75" customHeight="1">
-      <c r="A87" s="6" t="s">
+    <row r="92" spans="1:2" ht="84.75" customHeight="1">
+      <c r="A92" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="7"/>
-    </row>
-    <row r="90" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A90" s="3" t="s">
+      <c r="B92" s="10"/>
+    </row>
+    <row r="95" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A95" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>110</v>
+      <c r="A97" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>119</v>
+        <v>73</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>67</v>
+        <v>112</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="24.95" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="3" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>128</v>
+      <c r="A110" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>130</v>
+      <c r="A111" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>133</v>
+      <c r="A112" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" s="3" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A123" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="5" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B125" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="5" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B126" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="5" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B127" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="5" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B128" s="5" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A132" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>171</v>
+      <c r="A133" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A137" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>176</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>67</v>
+      <c r="A138" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A142" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B144" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="5" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B145" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="5" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B146" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:2" s="8" customFormat="1">
-      <c r="A142" s="10" t="s">
+    <row r="147" spans="1:2" s="6" customFormat="1">
+      <c r="A147" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B147" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="1:2" s="8" customFormat="1">
-      <c r="A143" s="10" t="s">
+    <row r="148" spans="1:2" s="6" customFormat="1">
+      <c r="A148" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B148" s="8" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A92:B92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="184">
   <si>
     <t>商品类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -987,6 +987,14 @@
   </si>
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>delStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除 0：否 1：是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1100,14 +1108,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,7 +1409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1409,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1487,8 +1495,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -1571,815 +1579,823 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
+    <row r="22" spans="1:2" s="6" customFormat="1">
+      <c r="A22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A68" s="3" t="s">
+    <row r="69" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="84.75" customHeight="1">
-      <c r="A92" s="9" t="s">
+    <row r="93" spans="1:2" ht="84.75" customHeight="1">
+      <c r="A93" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="10"/>
-    </row>
-    <row r="95" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A95" s="3" t="s">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="96" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A96" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>122</v>
+        <v>73</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="5" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B105" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A108" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A124" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="3" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B130" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A132" s="3" t="s">
+    <row r="133" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A133" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="3" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B140" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A142" s="3" t="s">
+    <row r="143" spans="1:2" ht="24.95" customHeight="1">
+      <c r="A143" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B143" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="3" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B144" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="5" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B147" s="5" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" s="6" customFormat="1">
-      <c r="A147" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:2" s="6" customFormat="1">
       <c r="A148" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" s="6" customFormat="1">
+      <c r="A149" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B149" s="8" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/表结构设计.xlsx
+++ b/src/main/resources/表结构设计.xlsx
@@ -260,9 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>参数说明 value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,6 +992,9 @@
   <si>
     <t>是否删除 0：否 1：是</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramKey</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1464,34 +1464,34 @@
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1">
       <c r="A5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1">
       <c r="A6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="6" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="6" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1">
@@ -1565,26 +1565,26 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="6" customFormat="1">
       <c r="A22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1704,15 +1704,15 @@
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1756,11 +1756,11 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
-        <v>62</v>
+      <c r="A50" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1821,256 +1821,256 @@
     </row>
     <row r="62" spans="1:2" ht="24.95" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="24.95" customHeight="1">
       <c r="A69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="24.95" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="84.75" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" s="11"/>
     </row>
     <row r="96" spans="1:2" ht="24.95" customHeight="1">
       <c r="A96" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2083,274 +2083,274 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="24.95" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="24.95" customHeight="1">
       <c r="A124" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="24.95" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="24.95" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2358,39 +2358,39 @@
         <v>25</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:2" s="6" customFormat="1">
       <c r="A148" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:2" s="6" customFormat="1">
       <c r="A149" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
